--- a/58-State Tooltips 状态工具提示.xlsx
+++ b/58-State Tooltips 状态工具提示.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="1" r:id="rId1"/>
     <sheet name="插件参数" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>&lt;Help Description&gt;
  text
@@ -58,30 +71,97 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>将%1插入帮助说明，以显示一些数据，比如屏障计数。</t>
+      <t xml:space="preserve">将%1插入帮助说明，以显示一些数据，比如屏障计数。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这被用作Battle Core与State Tooltips的通用state描述标签</t>
     </r>
   </si>
   <si>
     <t>状态</t>
   </si>
   <si>
+    <t>&lt;State Tooltip Description&gt;
+ text
+ text
+&lt;/State Tooltip Description&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">为状态指定帮助说明。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">text：要在tooltip窗口中显示的文本。最好只用一行。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果未使用此标签，则帮助说明将默认为“插件参数”中找到的设置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">将%1插入帮助说明，以显示一些数据，比如屏障计数。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果一个状态中，同时拥有&lt;Help Description&gt;和&lt;State Tooltip Description&gt;标签，则state tooltips window将优先使用此标签。</t>
+    </r>
+  </si>
+  <si>
     <t>&lt;Exclude From Tooltips&gt;</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">从tooltip中排除。
 </t>
     </r>
@@ -106,6 +186,15 @@
     <t>Tooltips的尺寸？正常尺寸是1.0</t>
   </si>
   <si>
+    <t>Centered?</t>
+  </si>
+  <si>
+    <t>当通过悬停显示时，将状态工具提示居中？</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Skin Filename:</t>
   </si>
   <si>
@@ -119,6 +208,189 @@
   </si>
   <si>
     <t>皮肤不透明度。0～255</t>
+  </si>
+  <si>
+    <t>Keyboard-Select Show</t>
+  </si>
+  <si>
+    <t>Enabled?:</t>
+  </si>
+  <si>
+    <t>使用键盘选择目标时显示状态工具提示？</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Centered?:</t>
+  </si>
+  <si>
+    <t>当通过键盘显示时，是否将状态工具提示居中？</t>
+  </si>
+  <si>
+    <t>Hover Delay (MS):</t>
+  </si>
+  <si>
+    <t>为了不使目标选择屏幕变得混乱，工具提示显示延迟了多少毫秒（ms）</t>
+  </si>
+  <si>
+    <t>Offset X:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将工具提示的X位置从目标的基准偏移？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：左。正：右</t>
+    </r>
+  </si>
+  <si>
+    <t>+0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Actor Frontview X:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在前视图中选择演员时的附加偏移X。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：左。正：右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Weakness Display X:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用VisuMZ_3_Weakness显示时的附加偏移X。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：左。正：右</t>
+    </r>
+  </si>
+  <si>
+    <t>Offset Y:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将工具提示Y位置从目标的基准偏移？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：上。正：下</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Actor Frontview Y:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在前视图中选择演员时的附加偏移Y。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：上。正：下</t>
+    </r>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Weakness Display Y:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用VisuMZ_3_Weakness显示时的附加偏移Y。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：上。正：下</t>
+    </r>
+  </si>
+  <si>
+    <t>+20</t>
   </si>
   <si>
     <t>Vocabulary Settings  词汇设置</t>
@@ -521,14 +793,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,37 +819,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,6 +849,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -606,41 +897,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,7 +950,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,19 +985,34 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,55 +1021,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,121 +1171,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,21 +1224,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -970,6 +1256,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,153 +1329,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1183,16 +1487,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1204,52 +1517,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1549,37 +1862,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="61.5" spans="1:3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="25.5" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" ht="73.5" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1593,228 +1917,344 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="6" ht="18.75" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="49.5" spans="1:3">
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="37.5" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="37.5" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="37.5" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" spans="1:3">
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" ht="49.5" spans="1:3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" spans="1:3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="37.5" spans="1:4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="37.5" spans="1:4">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" spans="1:3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="37.5" spans="1:4">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="37.5" spans="1:4">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" ht="108" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>54</v>
+    <row r="24" ht="37.5" spans="1:4">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" ht="37.5" spans="1:4">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" spans="1:4">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" ht="108" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
